--- a/data/member_portal/member_login.xlsx
+++ b/data/member_portal/member_login.xlsx
@@ -60,11 +60,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auto@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto@gmail.com</t>
+    <t>The email or password you’ve entered is incorrect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect email or password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiauto@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiauto@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,19 +84,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The email or password you’ve entered is incorrect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect email or password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoabc@gmai.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto1234</t>
+    <t>uiautoabc@gmai.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -524,13 +524,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
